--- a/myAPI/0_v3_readPig/layout.xlsx
+++ b/myAPI/0_v3_readPig/layout.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\3_readPIG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\myAPI\0_v3_readPig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBF52B-2CC0-4F2E-9C2F-55B71059882F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA29314-D442-479E-B1A3-14E25865E109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25980" yWindow="1260" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1110" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="parameter" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,87 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+  <si>
+    <t>TMAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -151,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -166,6 +248,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -571,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F08198-54E2-4CF4-A1E9-1BAF976AA403}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -956,4 +1041,362 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5E9F24-9502-450F-8D4B-791BA3F95743}">
+  <dimension ref="A1:W15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="22" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <f>K1+1</f>
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <f t="shared" ref="M1:W1" si="0">L1+1</f>
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>